--- a/OpenStack_Passwords.xlsx
+++ b/OpenStack_Passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Documents\TECHNOLOGY\Baremetal_Virtualization\KVM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="11_C8706DE7DCCB40836B02CE998F75CCDC64E19E90" xr6:coauthVersionLast="33" xr6:coauthVersionMax="34" xr10:uidLastSave="{56B2E994-A90C-476C-B5D5-41F1FB55B16D}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="11_C8706DE7DCCB40836B02CE998F75CCDC64E19E90" xr6:coauthVersionLast="33" xr6:coauthVersionMax="34" xr10:uidLastSave="{A2A12A07-47B4-42A5-9FCF-EB1367412999}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
   <si>
     <t>Passwords</t>
   </si>
@@ -176,6 +176,30 @@
   </si>
   <si>
     <t>keystoneroot123</t>
+  </si>
+  <si>
+    <t>adminroot123</t>
+  </si>
+  <si>
+    <t>demo user</t>
+  </si>
+  <si>
+    <t>demo</t>
+  </si>
+  <si>
+    <t>demoroot123</t>
+  </si>
+  <si>
+    <t>for keystone</t>
+  </si>
+  <si>
+    <t>linux test user created by arun</t>
+  </si>
+  <si>
+    <t>arunroot123</t>
+  </si>
+  <si>
+    <t>arun</t>
   </si>
 </sst>
 </file>
@@ -526,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,6 +776,42 @@
         <v>51</v>
       </c>
     </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
